--- a/results/SA/SA_small_best.xlsx
+++ b/results/SA/SA_small_best.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antik/Desktop/cvrp-funsearch/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{927C6DAE-10DF-8E47-B864-6F4F70DCE938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E18863-0EDB-BE48-8BCF-2DC4AC6F4662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="4420" windowWidth="27700" windowHeight="16280" xr2:uid="{6F941C90-DC1E-6D4F-8D48-65D6FC0FD2E3}"/>
   </bookViews>
